--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\IdeaProjects\ihc\src\main\resources\static\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF4B3C17-525F-46DC-86C6-61E31F3F0270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC985580-DAC1-42B6-90F1-AEFF209F48DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>加做项目确认清单</t>
   </si>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>确认加做时间</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P16、Ki67</t>
@@ -303,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -359,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,7 +637,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +756,7 @@
     <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -765,20 +764,20 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="24">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>

--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\IdeaProjects\ihc\src\main\resources\static\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\vue\ihc\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC985580-DAC1-42B6-90F1-AEFF209F48DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20213331-0642-4939-899A-F63CADDD7361}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,9 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +634,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,7 +761,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="24">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
       <c r="H5" s="18" t="s">

--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\IdeaProjects\ihc\src\main\resources\static\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EC985580-DAC1-42B6-90F1-AEFF209F48DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF4B3C17-525F-46DC-86C6-61E31F3F0270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>加做项目确认清单</t>
   </si>
@@ -74,6 +74,10 @@
   </si>
   <si>
     <t>确认加做时间</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P16、Ki67</t>
@@ -299,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,9 +359,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +638,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +757,7 @@
     <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -764,20 +765,20 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="24">
-        <v>2</v>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K5" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>

--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\vue\ihc\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF4B3C17-525F-46DC-86C6-61E31F3F0270}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20213331-0642-4939-899A-F63CADDD7361}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>加做项目确认清单</t>
   </si>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>确认加做时间</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>P16、Ki67</t>
@@ -638,7 +634,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -757,7 +753,7 @@
     <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>13</v>
@@ -765,20 +761,20 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="J5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>

--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\vue\ihc\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\IdeaProjects\ihc-vue\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{20213331-0642-4939-899A-F63CADDD7361}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6C7D1AC-549D-49F4-9F7E-66C8E56EBF24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>加做项目确认清单</t>
   </si>
@@ -85,6 +85,14 @@
   </si>
   <si>
     <t>佚名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +159,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -299,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +360,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -355,6 +374,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -649,64 +671,67 @@
     <col min="8" max="8" width="43.625" style="3" customWidth="1"/>
     <col min="9" max="9" width="19.75" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.625" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="11" max="13" width="13.625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="14" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="8"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
@@ -740,17 +765,20 @@
       <c r="K4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="O4" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17" t="s">
         <v>19</v>
@@ -776,9 +804,12 @@
       <c r="K5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="17"/>
+      <c r="L5" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
+++ b/src/main/resources/static/static/模板-旧系统会诊免疫组化确定加做清单.xlsx
@@ -1,99 +1,95 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louiema1n\IdeaProjects\ihc-vue\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6C7D1AC-549D-49F4-9F7E-66C8E56EBF24}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{03304C64-78DA-4065-A7BA-E953A37462D3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>注意：灰色底纹部分不可修改和删除！！！</t>
+  </si>
   <si>
     <t>加做项目确认清单</t>
   </si>
   <si>
-    <t>条码</t>
-  </si>
-  <si>
-    <t>会诊蜡块数</t>
-  </si>
-  <si>
-    <t>会诊白片号</t>
-  </si>
-  <si>
-    <t>会诊HE</t>
+    <t>病人姓名</t>
+  </si>
+  <si>
+    <t>细项数</t>
   </si>
   <si>
     <t>项目明细</t>
   </si>
   <si>
+    <t>确认加做时间</t>
+  </si>
+  <si>
     <t>确认加做人</t>
   </si>
   <si>
     <t>病理医生</t>
   </si>
   <si>
-    <t>蜡块出库日期</t>
-  </si>
-  <si>
-    <t>蜡块归还日期</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
-    <t>注意：灰色底纹部分不可修改和删除！！！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>蜡块编号</t>
-  </si>
-  <si>
-    <t>180001-01</t>
-  </si>
-  <si>
-    <t>病人姓名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>细项数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认加做时间</t>
-  </si>
-  <si>
-    <t>P16、Ki67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-6-28 09:55:48</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>CD138</t>
+  </si>
+  <si>
+    <t>病理号</t>
+  </si>
+  <si>
+    <t>蜡块进出库</t>
+  </si>
+  <si>
+    <t>批次</t>
+  </si>
+  <si>
+    <t>（  ）、（  ）</t>
+  </si>
+  <si>
+    <t>备注1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>018-8-9</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>佚名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>外包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -116,53 +112,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -174,6 +162,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -187,32 +181,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFA9A9A9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA9A9A9"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFA9A9A9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -236,47 +211,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFA9A9A9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -289,9 +229,7 @@
       <top style="thin">
         <color rgb="FFA9A9A9"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -299,13 +237,11 @@
         <color rgb="FFA9A9A9"/>
       </left>
       <right style="thin">
-        <color rgb="FFFF0000"/>
+        <color rgb="FFA9A9A9"/>
       </right>
-      <top style="thin">
+      <top/>
+      <bottom style="thin">
         <color rgb="FFA9A9A9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -315,68 +251,52 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,171 +572,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:XEZ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="43.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="19.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.625" style="3" customWidth="1"/>
-    <col min="11" max="13" width="13.625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="14" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="9" max="10" width="13.625" style="2" customWidth="1"/>
+    <col min="11" max="16380" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12" t="s">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="9">
+        <v>18113035</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="F5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="2">
-        <v>2</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
